--- a/QuickLearn_DOC_Plan/FastLearn_7days_dbt_og_Airflow.Tasks.xlsx
+++ b/QuickLearn_DOC_Plan/FastLearn_7days_dbt_og_Airflow.Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peng/CursorAI_Projects/Airflow_dbt_Demo/QuickLearn_DOC_Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C584C72A-0880-8B4A-813A-F6687EF17ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C1DC6-DC03-1442-BB5C-047BA5E12472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,15 +303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +316,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,49 +679,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1"/>
@@ -729,64 +729,64 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -795,7 +795,7 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -804,7 +804,7 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -813,16 +813,16 @@
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -831,7 +831,7 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -840,16 +840,16 @@
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -909,13 +909,13 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
